--- a/Doppler/270ch/coordinates.xlsx
+++ b/Doppler/270ch/coordinates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rurib\test-open\Doppler\270ch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C791A02-D7D8-4B5F-83BE-50401100E4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A36BCD6-C173-4D6E-B31D-13FAD195C8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15315" activeTab="1" xr2:uid="{F66BEFBC-A7B6-4448-9F25-AFB8CF48553B}"/>
+    <workbookView xWindow="28702" yWindow="1253" windowWidth="21795" windowHeight="12614" activeTab="1" xr2:uid="{F66BEFBC-A7B6-4448-9F25-AFB8CF48553B}"/>
   </bookViews>
   <sheets>
     <sheet name="スリットごとのチャンネル数" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="38">
   <si>
     <t>旧ナンバリング</t>
     <rPh sb="0" eb="1">
@@ -188,11 +188,21 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>x_slit_name</t>
+    <t>y_pixel</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>y_pixel</t>
+    <t>x_slit_index</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>y手入力</t>
+    <rPh sb="1" eb="2">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -308,6 +318,187 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>338139</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>242157</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BAEF2E5-403E-A6DA-4A5A-8D94B64C25D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486401" y="1"/>
+          <a:ext cx="3995738" cy="4280756"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>220269</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9DD381E-E6E9-8415-DCFB-35A160536CE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10058400" y="1"/>
+          <a:ext cx="3986213" cy="4258868"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>109539</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>225020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF8D080A-4F59-7467-FCDE-55934461DC02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486401" y="4291014"/>
+          <a:ext cx="3767138" cy="4011206"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>100013</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>214877</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D08DB2A-9DD7-67D5-5150-4CF161F1DD20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10058400" y="4291013"/>
+          <a:ext cx="3757613" cy="4001064"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -609,7 +800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41B65A3-7BA7-9B47-AF26-A4947A5B990A}">
   <dimension ref="A1:AB80"/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0">
+    <sheetView topLeftCell="A30" zoomScale="81" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:D63"/>
     </sheetView>
   </sheetViews>
@@ -4535,10 +4726,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EAAA2B8-73B2-B541-AE07-E991E4894EAE}">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.8"/>
@@ -4551,10 +4742,10 @@
         <v>33</v>
       </c>
       <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
         <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
       </c>
       <c r="E1" t="s">
         <v>34</v>
@@ -4570,13 +4761,16 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
+      <c r="C2" s="1">
+        <v>1</v>
       </c>
       <c r="D2" s="1">
         <v>970</v>
       </c>
       <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4587,13 +4781,16 @@
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>2</v>
+      <c r="C3" s="1">
+        <v>1</v>
       </c>
       <c r="D3" s="1">
         <v>955</v>
       </c>
       <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4604,13 +4801,16 @@
       <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
+      <c r="C4" s="1">
+        <v>1</v>
       </c>
       <c r="D4" s="1">
         <v>940</v>
       </c>
       <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4621,13 +4821,16 @@
       <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>2</v>
+      <c r="C5" s="1">
+        <v>1</v>
       </c>
       <c r="D5" s="1">
         <v>925</v>
       </c>
       <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4638,8 +4841,8 @@
       <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>2</v>
+      <c r="C6" s="1">
+        <v>1</v>
       </c>
       <c r="D6" s="1">
         <v>895</v>
@@ -4647,6 +4850,9 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A7" s="1">
@@ -4655,13 +4861,16 @@
       <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>2</v>
+      <c r="C7" s="1">
+        <v>1</v>
       </c>
       <c r="D7" s="1">
         <v>880</v>
       </c>
       <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4672,13 +4881,16 @@
       <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>2</v>
+      <c r="C8" s="1">
+        <v>1</v>
       </c>
       <c r="D8" s="1">
         <v>865</v>
       </c>
       <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4689,13 +4901,16 @@
       <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>2</v>
+      <c r="C9" s="1">
+        <v>1</v>
       </c>
       <c r="D9" s="1">
         <v>850</v>
       </c>
       <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4706,13 +4921,16 @@
       <c r="B10" s="1">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
-        <v>2</v>
+      <c r="C10" s="1">
+        <v>1</v>
       </c>
       <c r="D10" s="1">
         <v>834</v>
       </c>
       <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4723,13 +4941,16 @@
       <c r="B11" s="1">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
-        <v>2</v>
+      <c r="C11" s="1">
+        <v>1</v>
       </c>
       <c r="D11" s="1">
         <v>820</v>
       </c>
       <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4740,13 +4961,16 @@
       <c r="B12" s="1">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
-        <v>2</v>
+      <c r="C12" s="1">
+        <v>1</v>
       </c>
       <c r="D12" s="1">
         <v>804</v>
       </c>
       <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4757,13 +4981,16 @@
       <c r="B13" s="1">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
-        <v>2</v>
+      <c r="C13" s="1">
+        <v>1</v>
       </c>
       <c r="D13" s="1">
         <v>789</v>
       </c>
       <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4774,13 +5001,16 @@
       <c r="B14" s="1">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
-        <v>2</v>
+      <c r="C14" s="1">
+        <v>1</v>
       </c>
       <c r="D14" s="1">
         <v>775</v>
       </c>
       <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4791,13 +5021,16 @@
       <c r="B15" s="1">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
-        <v>2</v>
+      <c r="C15" s="1">
+        <v>1</v>
       </c>
       <c r="D15" s="1">
         <v>759</v>
       </c>
       <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4808,8 +5041,8 @@
       <c r="B16" s="1">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
-        <v>2</v>
+      <c r="C16" s="1">
+        <v>1</v>
       </c>
       <c r="D16" s="1">
         <v>744</v>
@@ -4817,16 +5050,19 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.8">
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A17" s="1">
         <v>17</v>
       </c>
       <c r="B17" s="1">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
-        <v>2</v>
+      <c r="C17" s="1">
+        <v>1</v>
       </c>
       <c r="D17" s="1">
         <v>729</v>
@@ -4834,681 +5070,920 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.8">
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A18" s="2">
         <v>18</v>
       </c>
       <c r="B18" s="2">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
-        <v>2</v>
+      <c r="C18" s="2">
+        <v>1</v>
       </c>
       <c r="D18" s="2">
         <v>713</v>
       </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.8">
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A19" s="2">
         <v>19</v>
       </c>
       <c r="B19" s="2">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
-        <v>2</v>
+      <c r="C19" s="2">
+        <v>1</v>
       </c>
       <c r="D19" s="2">
         <v>699</v>
       </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.8">
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A20" s="2">
         <v>20</v>
       </c>
       <c r="B20" s="2">
         <v>19</v>
       </c>
-      <c r="C20" t="s">
-        <v>2</v>
+      <c r="C20" s="2">
+        <v>1</v>
       </c>
       <c r="D20" s="2">
         <v>683</v>
       </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.8">
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A21" s="2">
         <v>21</v>
       </c>
       <c r="B21" s="2">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
-        <v>2</v>
+      <c r="C21" s="2">
+        <v>1</v>
       </c>
       <c r="D21" s="2">
         <v>668</v>
       </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.8">
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A22" s="2">
         <v>22</v>
       </c>
       <c r="B22" s="2">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
-        <v>2</v>
+      <c r="C22" s="2">
+        <v>1</v>
       </c>
       <c r="D22" s="2">
         <v>653</v>
       </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.8">
+      <c r="E22" s="2">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A23" s="2">
         <v>23</v>
       </c>
       <c r="B23" s="2">
         <v>22</v>
       </c>
-      <c r="C23" t="s">
-        <v>2</v>
+      <c r="C23" s="2">
+        <v>1</v>
       </c>
       <c r="D23" s="2">
         <v>638</v>
       </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.8">
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A24" s="2">
         <v>24</v>
       </c>
       <c r="B24" s="2">
         <v>23</v>
       </c>
-      <c r="C24" t="s">
-        <v>2</v>
+      <c r="C24" s="2">
+        <v>1</v>
       </c>
       <c r="D24" s="2">
         <v>624</v>
       </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.8">
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A25" s="2">
         <v>25</v>
       </c>
       <c r="B25" s="2">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>2</v>
+      <c r="C25" s="2">
+        <v>1</v>
       </c>
       <c r="D25" s="2">
         <v>608</v>
       </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.8">
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A26" s="2">
         <v>26</v>
       </c>
       <c r="B26" s="2">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>2</v>
+      <c r="C26" s="2">
+        <v>1</v>
       </c>
       <c r="D26" s="2">
         <v>593</v>
       </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.8">
+      <c r="E26" s="2">
+        <v>2</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A27" s="2">
         <v>27</v>
       </c>
       <c r="B27" s="2">
         <v>26</v>
       </c>
-      <c r="C27" t="s">
-        <v>2</v>
+      <c r="C27" s="2">
+        <v>1</v>
       </c>
       <c r="D27" s="2">
         <v>578</v>
       </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.8">
+      <c r="E27" s="2">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A28" s="2">
         <v>28</v>
       </c>
       <c r="B28" s="2">
         <v>27</v>
       </c>
-      <c r="C28" t="s">
-        <v>2</v>
+      <c r="C28" s="2">
+        <v>1</v>
       </c>
       <c r="D28" s="2">
         <v>563</v>
       </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.8">
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A29" s="2">
         <v>29</v>
       </c>
       <c r="B29" s="2">
         <v>28</v>
       </c>
-      <c r="C29" t="s">
-        <v>2</v>
+      <c r="C29" s="2">
+        <v>1</v>
       </c>
       <c r="D29" s="2">
         <v>550</v>
       </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.8">
+      <c r="E29" s="2">
+        <v>2</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A30" s="2">
         <v>30</v>
       </c>
       <c r="B30" s="2">
         <v>29</v>
       </c>
-      <c r="C30" t="s">
-        <v>2</v>
+      <c r="C30" s="2">
+        <v>1</v>
       </c>
       <c r="D30" s="2">
         <v>532</v>
       </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.8">
+      <c r="E30" s="2">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A31" s="2">
         <v>31</v>
       </c>
       <c r="B31" s="2">
         <v>30</v>
       </c>
-      <c r="C31" t="s">
-        <v>2</v>
+      <c r="C31" s="2">
+        <v>1</v>
       </c>
       <c r="D31" s="2">
         <v>518</v>
       </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.8">
+      <c r="E31" s="2">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A32" s="2">
         <v>32</v>
       </c>
       <c r="B32" s="2">
         <v>31</v>
       </c>
-      <c r="C32" t="s">
-        <v>2</v>
+      <c r="C32" s="2">
+        <v>1</v>
       </c>
       <c r="D32" s="2">
         <v>503</v>
       </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.8">
+      <c r="E32" s="2">
+        <v>2</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A33" s="2">
         <v>33</v>
       </c>
       <c r="B33" s="2">
         <v>32</v>
       </c>
-      <c r="C33" t="s">
-        <v>2</v>
+      <c r="C33" s="2">
+        <v>1</v>
       </c>
       <c r="D33" s="2">
         <v>487</v>
       </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.8">
+      <c r="E33" s="2">
+        <v>2</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A34" s="1">
         <v>34</v>
       </c>
       <c r="B34" s="1">
         <v>33</v>
       </c>
-      <c r="C34" t="s">
-        <v>2</v>
+      <c r="C34" s="1">
+        <v>1</v>
       </c>
       <c r="D34" s="1">
-        <v>472</v>
-      </c>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.8">
+        <v>479</v>
+      </c>
+      <c r="E34" s="1">
+        <v>3</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A35" s="1">
         <v>35</v>
       </c>
       <c r="B35" s="1">
         <v>34</v>
       </c>
-      <c r="C35" t="s">
-        <v>2</v>
+      <c r="C35" s="1">
+        <v>1</v>
       </c>
       <c r="D35" s="1">
-        <v>457</v>
-      </c>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.8">
+        <v>462</v>
+      </c>
+      <c r="E35" s="1">
+        <v>3</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A36" s="1">
         <v>36</v>
       </c>
       <c r="B36" s="1">
         <v>35</v>
       </c>
-      <c r="C36" t="s">
-        <v>2</v>
+      <c r="C36" s="1">
+        <v>1</v>
       </c>
       <c r="D36" s="1">
-        <v>442</v>
-      </c>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.8">
-      <c r="A37" s="1" t="s">
-        <v>26</v>
+        <v>447</v>
+      </c>
+      <c r="E36" s="1">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.8">
+      <c r="A37" s="1">
+        <v>37</v>
       </c>
       <c r="B37" s="1">
         <v>36</v>
       </c>
-      <c r="C37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.8">
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
+        <v>433</v>
+      </c>
+      <c r="E37" s="1">
+        <v>3</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A38" s="1">
         <v>38</v>
       </c>
       <c r="B38" s="1">
         <v>37</v>
       </c>
-      <c r="C38" t="s">
-        <v>2</v>
+      <c r="C38" s="1">
+        <v>1</v>
       </c>
       <c r="D38" s="1">
-        <v>412</v>
-      </c>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.8">
+        <v>417</v>
+      </c>
+      <c r="E38" s="1">
+        <v>3</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A39" s="1">
         <v>39</v>
       </c>
       <c r="B39" s="1">
         <v>38</v>
       </c>
-      <c r="C39" t="s">
-        <v>2</v>
+      <c r="C39" s="1">
+        <v>1</v>
       </c>
       <c r="D39" s="1">
-        <v>397</v>
-      </c>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.8">
+        <v>402</v>
+      </c>
+      <c r="E39" s="1">
+        <v>3</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A40" s="1">
         <v>40</v>
       </c>
       <c r="B40" s="1">
         <v>39</v>
       </c>
-      <c r="C40" t="s">
-        <v>2</v>
+      <c r="C40" s="1">
+        <v>1</v>
       </c>
       <c r="D40" s="1">
-        <v>382</v>
-      </c>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.8">
+        <v>387</v>
+      </c>
+      <c r="E40" s="1">
+        <v>3</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A41" s="1">
         <v>41</v>
       </c>
       <c r="B41" s="1">
         <v>40</v>
       </c>
-      <c r="C41" t="s">
-        <v>2</v>
+      <c r="C41" s="1">
+        <v>1</v>
       </c>
       <c r="D41" s="1">
-        <v>367</v>
-      </c>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.8">
+        <v>372</v>
+      </c>
+      <c r="E41" s="1">
+        <v>3</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A42" s="1">
         <v>42</v>
       </c>
       <c r="B42" s="1">
         <v>41</v>
       </c>
-      <c r="C42" t="s">
-        <v>2</v>
+      <c r="C42" s="1">
+        <v>1</v>
       </c>
       <c r="D42" s="1">
-        <v>351</v>
-      </c>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.8">
+        <v>356</v>
+      </c>
+      <c r="E42" s="1">
+        <v>3</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A43" s="1">
         <v>43</v>
       </c>
       <c r="B43" s="1">
         <v>42</v>
       </c>
-      <c r="C43" t="s">
-        <v>2</v>
+      <c r="C43" s="1">
+        <v>1</v>
       </c>
       <c r="D43" s="1">
-        <v>336</v>
-      </c>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.8">
+        <v>401</v>
+      </c>
+      <c r="E43" s="1">
+        <v>3</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A44" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B44" s="1">
         <v>43</v>
       </c>
-      <c r="C44" t="s">
-        <v>2</v>
+      <c r="C44" s="1">
+        <v>1</v>
       </c>
       <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.8">
+      <c r="E44" s="1">
+        <v>3</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A45" s="1">
         <v>45</v>
       </c>
       <c r="B45" s="1">
         <v>44</v>
       </c>
-      <c r="C45" t="s">
-        <v>2</v>
+      <c r="C45" s="1">
+        <v>1</v>
       </c>
       <c r="D45" s="1">
         <v>305</v>
       </c>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.8">
+      <c r="E45" s="1">
+        <v>3</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A46" s="1">
         <v>46</v>
       </c>
       <c r="B46" s="1">
         <v>45</v>
       </c>
-      <c r="C46" t="s">
-        <v>2</v>
+      <c r="C46" s="1">
+        <v>1</v>
       </c>
       <c r="D46" s="1">
         <v>290</v>
       </c>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.8">
+      <c r="E46" s="1">
+        <v>3</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A47" s="1">
         <v>47</v>
       </c>
       <c r="B47" s="1">
         <v>46</v>
       </c>
-      <c r="C47" t="s">
-        <v>2</v>
+      <c r="C47" s="1">
+        <v>1</v>
       </c>
       <c r="D47" s="1">
         <v>276</v>
       </c>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.8">
+      <c r="E47" s="1">
+        <v>3</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A48" s="1">
         <v>48</v>
       </c>
       <c r="B48" s="1">
         <v>47</v>
       </c>
-      <c r="C48" t="s">
-        <v>2</v>
+      <c r="C48" s="1">
+        <v>1</v>
       </c>
       <c r="D48" s="1">
         <v>261</v>
       </c>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.8">
+      <c r="E48" s="1">
+        <v>3</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A49" s="1">
         <v>49</v>
       </c>
       <c r="B49" s="1"/>
-      <c r="C49" t="s">
-        <v>2</v>
+      <c r="C49" s="1">
+        <v>1</v>
       </c>
       <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.8">
+      <c r="E49" s="1">
+        <v>3</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A50" s="1">
         <v>50</v>
       </c>
       <c r="B50" s="1">
         <v>48</v>
       </c>
-      <c r="C50" t="s">
-        <v>2</v>
+      <c r="C50" s="1">
+        <v>1</v>
       </c>
       <c r="D50" s="1">
         <v>229</v>
       </c>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.8">
+      <c r="E50" s="1">
+        <v>3</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A51" s="1">
         <v>51</v>
       </c>
       <c r="B51" s="1">
         <v>49</v>
       </c>
-      <c r="C51" t="s">
-        <v>2</v>
+      <c r="C51" s="1">
+        <v>1</v>
       </c>
       <c r="D51" s="1">
         <v>214</v>
       </c>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.8">
+      <c r="E51" s="1">
+        <v>3</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A52" s="1">
         <v>52</v>
       </c>
       <c r="B52" s="1">
         <v>50</v>
       </c>
-      <c r="C52" t="s">
-        <v>2</v>
+      <c r="C52" s="1">
+        <v>1</v>
       </c>
       <c r="D52" s="1">
         <v>199</v>
       </c>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.8">
+      <c r="E52" s="1">
+        <v>3</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A53" s="1">
         <v>53</v>
       </c>
       <c r="B53" s="1">
         <v>51</v>
       </c>
-      <c r="C53" t="s">
-        <v>2</v>
+      <c r="C53" s="1">
+        <v>1</v>
       </c>
       <c r="D53" s="1">
         <v>183</v>
       </c>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.8">
+      <c r="E53" s="1">
+        <v>3</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A54" s="1">
         <v>54</v>
       </c>
       <c r="B54" s="1">
         <v>52</v>
       </c>
-      <c r="C54" t="s">
-        <v>2</v>
+      <c r="C54" s="1">
+        <v>1</v>
       </c>
       <c r="D54" s="1">
         <v>169</v>
       </c>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.8">
+      <c r="E54" s="1">
+        <v>3</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A55" s="1">
         <v>55</v>
       </c>
       <c r="B55" s="1">
         <v>53</v>
       </c>
-      <c r="C55" t="s">
-        <v>2</v>
+      <c r="C55" s="1">
+        <v>1</v>
       </c>
       <c r="D55" s="1">
         <v>154</v>
       </c>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.8">
+      <c r="E55" s="1">
+        <v>3</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A56" s="1">
         <v>56</v>
       </c>
       <c r="B56" s="1">
         <v>54</v>
       </c>
-      <c r="C56" t="s">
-        <v>2</v>
+      <c r="C56" s="1">
+        <v>1</v>
       </c>
       <c r="D56" s="1">
         <v>123</v>
       </c>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.8">
+      <c r="E56" s="1">
+        <v>3</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A57" s="1">
         <v>57</v>
       </c>
       <c r="B57" s="1">
         <v>55</v>
       </c>
-      <c r="C57" t="s">
-        <v>2</v>
+      <c r="C57" s="1">
+        <v>1</v>
       </c>
       <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.8">
+      <c r="E57" s="1">
+        <v>3</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A58" s="1">
         <v>58</v>
       </c>
       <c r="B58" s="1">
         <v>56</v>
       </c>
-      <c r="C58" t="s">
-        <v>2</v>
+      <c r="C58" s="1">
+        <v>1</v>
       </c>
       <c r="D58" s="1">
         <v>92</v>
       </c>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.8">
+      <c r="E58" s="1">
+        <v>3</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A59" s="1">
         <v>59</v>
       </c>
       <c r="B59" s="1"/>
-      <c r="C59" t="s">
-        <v>2</v>
+      <c r="C59" s="1">
+        <v>1</v>
       </c>
       <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.8">
+      <c r="E59" s="1">
+        <v>3</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A60" s="1">
         <v>60</v>
       </c>
       <c r="B60" s="1">
         <v>57</v>
       </c>
-      <c r="C60" t="s">
-        <v>2</v>
+      <c r="C60" s="1">
+        <v>1</v>
       </c>
       <c r="D60" s="1">
         <v>78</v>
       </c>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.8">
+      <c r="E60" s="1">
+        <v>3</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A61" s="1">
         <v>61</v>
       </c>
       <c r="B61" s="1">
         <v>58</v>
       </c>
-      <c r="C61" t="s">
-        <v>2</v>
+      <c r="C61" s="1">
+        <v>1</v>
       </c>
       <c r="D61" s="1">
         <v>62</v>
       </c>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.8">
+      <c r="E61" s="1">
+        <v>3</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A62" s="1">
         <v>62</v>
       </c>
       <c r="B62" s="1">
         <v>59</v>
       </c>
-      <c r="C62" t="s">
-        <v>2</v>
+      <c r="C62" s="1">
+        <v>1</v>
       </c>
       <c r="D62" s="1">
         <v>47</v>
       </c>
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.8">
+      <c r="E62" s="1">
+        <v>3</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.8">
       <c r="A63" s="1">
         <v>63</v>
       </c>
       <c r="B63" s="1"/>
-      <c r="C63" t="s">
-        <v>2</v>
+      <c r="C63" s="1">
+        <v>1</v>
       </c>
       <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
+      <c r="E63" s="1">
+        <v>3</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>